--- a/medicine/Sexualité et sexologie/Caresses_interdites/Caresses_interdites.xlsx
+++ b/medicine/Sexualité et sexologie/Caresses_interdites/Caresses_interdites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caresses interdites (Daddy, Darling) est un film danois et américain, réalisé par Joseph W. Sarno et sorti en 1970. Ce film de sexploitation aborde les thèmes de la famille monoparentale et recomposée, de la découverte de la sexualité, de la jalousie, de l'inceste et du lesbianisme, en introduisant quelques scènes érotiques.
 </t>
@@ -511,7 +523,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un pavillon de Copenhague, Katja, une jeune étudiante de dix-neuf ans, n'a pas d'autre amie que Lise et vit seule avec son père veuf, Eric, souvent en déplacement pour son travail. Vierge et éprouvant du désir pour lui, elle tente de le séduire, en vain, et doit se contenter de fantasmer sur lui, y compris lorsqu'elle cède aux avances de Lars, le jeune locataire et amant de Lise et sa mère.
 Lorsque Katja apprend de son père qu'il va se marier avec Svea, une collègue qu'il fréquente secrètement depuis quelque temps, elle est prise de jalousie et de désarroi. Un soir, après les cours, elle se confie à son professeur, Miss Sten, qui, pour la réconforter, la convie à les rejoindre, elle et son amie Miss Bellig, à un dîner organisé par la sœur de cette dernière, Lena. Celle-ci, artiste à succès, accepte de donner des cours de peinture à Katja, devant les recommandations de Miss Sten. L'intérêt de Katja pour cette nouvelle expérience lui fait quelque peu oublier sa jalousie pour Svea, et elle devient de plus en plus cordiale à son égard.
@@ -545,12 +559,14 @@
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sarno a choisi le Danemark en raison de l'attitude plus libérale de ce pays, par rapport aux États-Unis, à l'égard de la nudité et de la sexualité[1].
-La Revue du cinéma qualifie le travail de Sarno de « portrait psychologique cohérent » et de « réalisation honnête qui évite le scabreux, mais gâchée par le détours du scénario et l'extrême faiblesse des dialogues »[2].
-Joe Dante le décrit dans le Film Bulletin comme un « film de sexploitation tiède mais bien réalisé »[3].
-La revue Écran définit le film en ces termes : « scénario d'Œdipe + scénario de Phèdre mis sexes dessus-dessous »[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sarno a choisi le Danemark en raison de l'attitude plus libérale de ce pays, par rapport aux États-Unis, à l'égard de la nudité et de la sexualité.
+La Revue du cinéma qualifie le travail de Sarno de « portrait psychologique cohérent » et de « réalisation honnête qui évite le scabreux, mais gâchée par le détours du scénario et l'extrême faiblesse des dialogues ».
+Joe Dante le décrit dans le Film Bulletin comme un « film de sexploitation tiède mais bien réalisé ».
+La revue Écran définit le film en ces termes : « scénario d'Œdipe + scénario de Phèdre mis sexes dessus-dessous ».
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre :
 Titre original : Daddy, Darling (littéralement « Papa, chéri »)
@@ -607,15 +625,15 @@
 États-Unis : 18 novembre 1970 (première à Philadelphie)
 Allemagne de l'Ouest : 12 février 1971
 France : 23 février 1972
-Royaume-Uni : 10 juillet 1973 après avoir été rejeté en 1970 par le BBFC[5],[6]
+Royaume-Uni : 10 juillet 1973 après avoir été rejeté en 1970 par le BBFC,
 Durée : 95 minutes
-coupé à 83 minutes pour la sortie au Royaume-Uni[7] (selon d'autres sources, il n'a pas été coupé[8],[9])
-coupé à 92 minutes pour la sortie en Australie[10]
+coupé à 83 minutes pour la sortie au Royaume-Uni (selon d'autres sources, il n'a pas été coupé,)
+coupé à 92 minutes pour la sortie en Australie
 Format : son mono, couleurs (Eastmancolor), 35 mm, 1,85:1
 Classement :
 classé X par la MPAA aux États-Unis
 classé X par le BBFC au Royaume-Uni
-classé R par l'OFFC en Australie[10]
+classé R par l'OFFC en Australie
 Genre : drame bourgeois, érotique</t>
         </is>
       </c>
@@ -644,10 +662,12 @@
           <t>Musique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Musique : composée et dirigée par Tony Hazzard (en)
-Chansons (extraites de l'album Tony Hazzard sings Tony Hazzard sorti en 1969)[7] :
+Chansons (extraites de l'album Tony Hazzard sings Tony Hazzard sorti en 1969) :
 Hello, World
 Fade Away, Maureen
 Hello It's Me
@@ -680,7 +700,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Helli Louise (en) (créditée Helle Louise) : Katja Holmqvist
 Ole Wisborg (da) : Eric Holmqvist, le père de Katja
@@ -719,7 +741,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Richard P. Krafsur (dir.) et American Film Institute (dir.), The American Film Institute Catalog of Motion Pictures Produced in the United States, vol. F6, t. 1 : Feature Films, 1961-1970. Film Entries, New-York, R. R. Bowker (en), 1976, 976 p. (ISBN 0-8352-0453-7), chap. F6.0998 (« Daddy, Darling »), p. 222.
 « Caresses interdites » (présentation de l'œuvre), sur l'Internet Movie Database.
